--- a/Labo #2/Labo2a Etudiant (Algo descente pour RS)/AnalyseDonnees.xlsx
+++ b/Labo #2/Labo2a Etudiant (Algo descente pour RS)/AnalyseDonnees.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
@@ -11979,31 +11979,31 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.8</c:v>
+                  <c:v>102.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.879999999999995</c:v>
+                  <c:v>72.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.327999999999996</c:v>
+                  <c:v>50.420999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.996799999999997</c:v>
+                  <c:v>35.294699999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3980799999999984</c:v>
+                  <c:v>24.706289999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0388479999999989</c:v>
+                  <c:v>17.294402999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0233087999999992</c:v>
+                  <c:v>12.106082099999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12018,31 +12018,31 @@
                   <c:v>1.1485537236927929E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8468083287651501E-4</c:v>
+                  <c:v>1.6935093223266699E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.088193357388177E-6</c:v>
+                  <c:v>1.09932253573819E-4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.045247282366976E-9</c:v>
+                  <c:v>2.2103674310463303E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.0765439015950689E-15</c:v>
+                  <c:v>8.3303554448200403E-9</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.1308011509224383E-25</c:v>
+                  <c:v>2.8713805931775902E-12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6442980398255439E-42</c:v>
+                  <c:v>3.2475678225803569E-17</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.0565076867402749E-70</c:v>
+                  <c:v>2.786654876691397E-24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.2093552027669717E-116</c:v>
+                  <c:v>2.2393338042427145E-34</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.2411289536256912E-193</c:v>
+                  <c:v>8.4867458062614475E-49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12102,31 +12102,31 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.8</c:v>
+                  <c:v>102.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.879999999999995</c:v>
+                  <c:v>72.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.327999999999996</c:v>
+                  <c:v>50.420999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.996799999999997</c:v>
+                  <c:v>35.294699999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3980799999999984</c:v>
+                  <c:v>24.706289999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0388479999999989</c:v>
+                  <c:v>17.294402999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0233087999999992</c:v>
+                  <c:v>12.106082099999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12141,31 +12141,31 @@
                   <c:v>0.10717059875230674</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.4180174376470388E-2</c:v>
+                  <c:v>4.115226995351131E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0219281286406243E-3</c:v>
+                  <c:v>1.048485830013067E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2330284291465427E-5</c:v>
+                  <c:v>1.4867304500299746E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2810728452673354E-8</c:v>
+                  <c:v>9.1270780893011101E-5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.362738691784478E-13</c:v>
+                  <c:v>1.6945148548117218E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.626129773365442E-21</c:v>
+                  <c:v>5.6987435655417563E-9</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2486679805476563E-35</c:v>
+                  <c:v>1.6693276720558481E-12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.7914673323192281E-58</c:v>
+                  <c:v>1.4964403777774492E-17</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6930913866068328E-97</c:v>
+                  <c:v>9.2123535571869191E-25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12225,31 +12225,31 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.8</c:v>
+                  <c:v>102.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.879999999999995</c:v>
+                  <c:v>72.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.327999999999996</c:v>
+                  <c:v>50.420999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.996799999999997</c:v>
+                  <c:v>35.294699999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3980799999999984</c:v>
+                  <c:v>24.706289999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0388479999999989</c:v>
+                  <c:v>17.294402999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0233087999999992</c:v>
+                  <c:v>12.106082099999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12264,31 +12264,31 @@
                   <c:v>0.32736920861972763</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15549975683733525</c:v>
+                  <c:v>0.20286022269905776</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.4965855141880985E-2</c:v>
+                  <c:v>0.10239559707394977</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6859725897567799E-3</c:v>
+                  <c:v>3.8558143757577004E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.8113731932617683E-4</c:v>
+                  <c:v>9.5535742470036367E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.7989125633902069E-7</c:v>
+                  <c:v>1.3017353244080463E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.032529942065455E-11</c:v>
+                  <c:v>7.5490022953644381E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7420122105996908E-18</c:v>
+                  <c:v>1.2920246406535163E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3384570715264752E-29</c:v>
+                  <c:v>3.8683851640929563E-9</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.5452577070679514E-49</c:v>
+                  <c:v>9.5981006231373286E-13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12348,31 +12348,31 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.8</c:v>
+                  <c:v>102.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.879999999999995</c:v>
+                  <c:v>72.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.327999999999996</c:v>
+                  <c:v>50.420999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.996799999999997</c:v>
+                  <c:v>35.294699999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3980799999999984</c:v>
+                  <c:v>24.706289999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0388479999999989</c:v>
+                  <c:v>17.294402999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0233087999999992</c:v>
+                  <c:v>12.106082099999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12387,31 +12387,31 @@
                   <c:v>0.57311627097425444</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.39543147132337708</c:v>
+                  <c:v>0.45147372837984984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21303553497981306</c:v>
+                  <c:v>0.32108338546933129</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.598947053948929E-2</c:v>
+                  <c:v>0.19731873999261412</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3632924542456461E-2</c:v>
+                  <c:v>9.8423231355989613E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.7800379996822099E-4</c:v>
+                  <c:v>3.6439132365620616E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.5811662773645055E-6</c:v>
+                  <c:v>8.8124604794533514E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.3112030720982382E-9</c:v>
+                  <c:v>1.159910677224694E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0401439895618527E-15</c:v>
+                  <c:v>6.4020753352885215E-5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.0248525967534675E-24</c:v>
+                  <c:v>1.0210092723512226E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12471,31 +12471,31 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.8</c:v>
+                  <c:v>102.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.879999999999995</c:v>
+                  <c:v>72.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.327999999999996</c:v>
+                  <c:v>50.420999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.996799999999997</c:v>
+                  <c:v>35.294699999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3980799999999984</c:v>
+                  <c:v>24.706289999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0388479999999989</c:v>
+                  <c:v>17.294402999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0233087999999992</c:v>
+                  <c:v>12.106082099999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12510,31 +12510,31 @@
                   <c:v>0.75830722406169693</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.63058260877111683</c:v>
+                  <c:v>0.67351965833324645</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46369952195624492</c:v>
+                  <c:v>0.56857283829988292</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27779712509907595</c:v>
+                  <c:v>0.44636942723876272</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11827135658451057</c:v>
+                  <c:v>0.31591008287348166</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8497010149310397E-2</c:v>
+                  <c:v>0.19279274920614523</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.658676489315026E-3</c:v>
+                  <c:v>9.5214040405638467E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.102415547013311E-5</c:v>
+                  <c:v>3.4753729871640403E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.019287679859804E-8</c:v>
+                  <c:v>8.2359995832118997E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.1944145081521743E-12</c:v>
+                  <c:v>1.0530570014240309E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12594,31 +12594,31 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.8</c:v>
+                  <c:v>102.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.879999999999995</c:v>
+                  <c:v>72.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.327999999999996</c:v>
+                  <c:v>50.420999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.996799999999997</c:v>
+                  <c:v>35.294699999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3980799999999984</c:v>
+                  <c:v>24.706289999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0388479999999989</c:v>
+                  <c:v>17.294402999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0233087999999992</c:v>
+                  <c:v>12.106082099999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12633,31 +12633,31 @@
                   <c:v>0.87226093132232685</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.79630119599648475</c:v>
+                  <c:v>0.82263876836332239</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.68411473812563373</c:v>
+                  <c:v>0.75660681106291405</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53114721804191611</c:v>
+                  <c:v>0.67136314257075036</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.34835724872852047</c:v>
+                  <c:v>0.56597392273503966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17246782500492225</c:v>
+                  <c:v>0.44345752697204527</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.3437583518641835E-2</c:v>
+                  <c:v>0.31297013776880112</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5813174961530559E-3</c:v>
+                  <c:v>0.19023475291204575</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.9257764589838293E-4</c:v>
+                  <c:v>9.3414454873885389E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.289442267192937E-6</c:v>
+                  <c:v>3.3819172494632385E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12723,31 +12723,31 @@
                   <c:v>300</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>180</c:v>
+                  <c:v>210</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>108</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64.8</c:v>
+                  <c:v>102.89999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>38.879999999999995</c:v>
+                  <c:v>72.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>23.327999999999996</c:v>
+                  <c:v>50.420999999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13.996799999999997</c:v>
+                  <c:v>35.294699999999985</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.3980799999999984</c:v>
+                  <c:v>24.706289999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.0388479999999989</c:v>
+                  <c:v>17.294402999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.0233087999999992</c:v>
+                  <c:v>12.106082099999993</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12762,31 +12762,31 @@
                   <c:v>0.93550698503161778</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.89483931681436979</c:v>
+                  <c:v>0.90915644287671304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.830950389901292</c:v>
+                  <c:v>0.87279513214139415</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.73444367192973115</c:v>
+                  <c:v>0.82335859223606389</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.59785723428911941</c:v>
+                  <c:v>0.75755276652767778</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.42428969238130593</c:v>
+                  <c:v>0.67256257616560133</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23957277793205695</c:v>
+                  <c:v>0.5674189740520722</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.2412158539992822E-2</c:v>
+                  <c:v>0.44507589864733055</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.8889270715907111E-2</c:v>
+                  <c:v>0.31460307826335648</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3397547888394038E-3</c:v>
+                  <c:v>0.19165428131517079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12930,10 +12930,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>35.879999999999995</c:v>
+                  <c:v>69.029999999999987</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.879999999999995</c:v>
+                  <c:v>69.029999999999987</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17007,7 +17007,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA382"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D362" sqref="D362"/>
     </sheetView>
   </sheetViews>
@@ -23537,8 +23537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23563,6 +23563,7 @@
         <v>300</v>
       </c>
       <c r="C1">
+        <f>B1</f>
         <v>300</v>
       </c>
       <c r="E1" t="s">
@@ -23587,7 +23588,7 @@
       </c>
       <c r="O1">
         <f>CHOOSE($C$3,$A$9,$A$10,$A$11,$A$12,$A$13,$A$14,$A$15,$A$16,$A$17,$A$18) - 3</f>
-        <v>35.879999999999995</v>
+        <v>69.029999999999987</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -23599,7 +23600,8 @@
         <v>0.7</v>
       </c>
       <c r="C2">
-        <v>0.6</v>
+        <f>B2</f>
+        <v>0.7</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -23627,7 +23629,7 @@
       </c>
       <c r="O2">
         <f>O1</f>
-        <v>35.879999999999995</v>
+        <v>69.029999999999987</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -23639,6 +23641,7 @@
         <v>5</v>
       </c>
       <c r="C3">
+        <f>B3</f>
         <v>5</v>
       </c>
       <c r="E3" t="s">
@@ -23785,307 +23788,307 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>A9*$C$2</f>
-        <v>180</v>
+        <v>210</v>
       </c>
       <c r="B10">
         <f t="shared" ref="B10:B18" si="5">EXP(-B$8/$A10)</f>
-        <v>5.8468083287651501E-4</v>
+        <v>1.6935093223266699E-3</v>
       </c>
       <c r="C10">
         <f t="shared" si="4"/>
-        <v>2.4180174376470388E-2</v>
+        <v>4.115226995351131E-2</v>
       </c>
       <c r="D10">
         <f t="shared" si="4"/>
-        <v>0.15549975683733525</v>
+        <v>0.20286022269905776</v>
       </c>
       <c r="E10">
         <f t="shared" si="4"/>
-        <v>0.39543147132337708</v>
+        <v>0.45147372837984984</v>
       </c>
       <c r="F10">
         <f t="shared" si="4"/>
-        <v>0.63058260877111683</v>
+        <v>0.67351965833324645</v>
       </c>
       <c r="G10">
         <f t="shared" si="4"/>
-        <v>0.79630119599648475</v>
+        <v>0.82263876836332239</v>
       </c>
       <c r="H10">
         <f t="shared" si="4"/>
-        <v>0.89483931681436979</v>
+        <v>0.90915644287671304</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" ref="A11:A18" si="6">A10*$C$2</f>
-        <v>108</v>
+        <v>147</v>
       </c>
       <c r="B11">
         <f t="shared" si="5"/>
-        <v>4.088193357388177E-6</v>
+        <v>1.09932253573819E-4</v>
       </c>
       <c r="C11">
         <f t="shared" si="4"/>
-        <v>2.0219281286406243E-3</v>
+        <v>1.048485830013067E-2</v>
       </c>
       <c r="D11">
         <f t="shared" si="4"/>
-        <v>4.4965855141880985E-2</v>
+        <v>0.10239559707394977</v>
       </c>
       <c r="E11">
         <f t="shared" si="4"/>
-        <v>0.21303553497981306</v>
+        <v>0.32108338546933129</v>
       </c>
       <c r="F11">
         <f t="shared" si="4"/>
-        <v>0.46369952195624492</v>
+        <v>0.56857283829988292</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>0.68411473812563373</v>
+        <v>0.75660681106291405</v>
       </c>
       <c r="H11">
         <f t="shared" si="4"/>
-        <v>0.830950389901292</v>
+        <v>0.87279513214139415</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="6"/>
-        <v>64.8</v>
+        <v>102.89999999999999</v>
       </c>
       <c r="B12">
         <f t="shared" si="5"/>
-        <v>1.045247282366976E-9</v>
+        <v>2.2103674310463303E-6</v>
       </c>
       <c r="C12">
         <f t="shared" si="4"/>
-        <v>3.2330284291465427E-5</v>
+        <v>1.4867304500299746E-3</v>
       </c>
       <c r="D12">
         <f t="shared" si="4"/>
-        <v>5.6859725897567799E-3</v>
+        <v>3.8558143757577004E-2</v>
       </c>
       <c r="E12">
         <f t="shared" si="4"/>
-        <v>7.598947053948929E-2</v>
+        <v>0.19731873999261412</v>
       </c>
       <c r="F12">
         <f t="shared" si="4"/>
-        <v>0.27779712509907595</v>
+        <v>0.44636942723876272</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
-        <v>0.53114721804191611</v>
+        <v>0.67136314257075036</v>
       </c>
       <c r="H12">
         <f t="shared" si="4"/>
-        <v>0.73444367192973115</v>
+        <v>0.82335859223606389</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="6"/>
-        <v>38.879999999999995</v>
+        <v>72.029999999999987</v>
       </c>
       <c r="B13">
         <f t="shared" si="5"/>
-        <v>1.0765439015950689E-15</v>
+        <v>8.3303554448200403E-9</v>
       </c>
       <c r="C13">
         <f t="shared" si="4"/>
-        <v>3.2810728452673354E-8</v>
+        <v>9.1270780893011101E-5</v>
       </c>
       <c r="D13">
         <f t="shared" si="4"/>
-        <v>1.8113731932617683E-4</v>
+        <v>9.5535742470036367E-3</v>
       </c>
       <c r="E13">
         <f t="shared" si="4"/>
-        <v>1.3632924542456461E-2</v>
+        <v>9.8423231355989613E-2</v>
       </c>
       <c r="F13">
         <f t="shared" si="4"/>
-        <v>0.11827135658451057</v>
+        <v>0.31591008287348166</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
-        <v>0.34835724872852047</v>
+        <v>0.56597392273503966</v>
       </c>
       <c r="H13">
         <f t="shared" si="4"/>
-        <v>0.59785723428911941</v>
+        <v>0.75755276652767778</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="6"/>
-        <v>23.327999999999996</v>
+        <v>50.420999999999985</v>
       </c>
       <c r="B14">
         <f t="shared" si="5"/>
-        <v>1.1308011509224383E-25</v>
+        <v>2.8713805931775902E-12</v>
       </c>
       <c r="C14">
         <f t="shared" si="4"/>
-        <v>3.362738691784478E-13</v>
+        <v>1.6945148548117218E-6</v>
       </c>
       <c r="D14">
         <f t="shared" si="4"/>
-        <v>5.7989125633902069E-7</v>
+        <v>1.3017353244080463E-3</v>
       </c>
       <c r="E14">
         <f t="shared" si="4"/>
-        <v>7.7800379996822099E-4</v>
+        <v>3.6439132365620616E-2</v>
       </c>
       <c r="F14">
         <f t="shared" si="4"/>
-        <v>2.8497010149310397E-2</v>
+        <v>0.19279274920614523</v>
       </c>
       <c r="G14">
         <f t="shared" si="4"/>
-        <v>0.17246782500492225</v>
+        <v>0.44345752697204527</v>
       </c>
       <c r="H14">
         <f t="shared" si="4"/>
-        <v>0.42428969238130593</v>
+        <v>0.67256257616560133</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="6"/>
-        <v>13.996799999999997</v>
+        <v>35.294699999999985</v>
       </c>
       <c r="B15">
         <f t="shared" si="5"/>
-        <v>2.6442980398255439E-42</v>
+        <v>3.2475678225803569E-17</v>
       </c>
       <c r="C15">
         <f t="shared" si="4"/>
-        <v>1.626129773365442E-21</v>
+        <v>5.6987435655417563E-9</v>
       </c>
       <c r="D15">
         <f t="shared" si="4"/>
-        <v>4.032529942065455E-11</v>
+        <v>7.5490022953644381E-5</v>
       </c>
       <c r="E15">
         <f t="shared" si="4"/>
-        <v>6.5811662773645055E-6</v>
+        <v>8.8124604794533514E-3</v>
       </c>
       <c r="F15">
         <f t="shared" si="4"/>
-        <v>2.658676489315026E-3</v>
+        <v>9.5214040405638467E-2</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
-        <v>5.3437583518641835E-2</v>
+        <v>0.31297013776880112</v>
       </c>
       <c r="H15">
         <f t="shared" si="4"/>
-        <v>0.23957277793205695</v>
+        <v>0.5674189740520722</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="6"/>
-        <v>8.3980799999999984</v>
+        <v>24.706289999999989</v>
       </c>
       <c r="B16">
         <f t="shared" si="5"/>
-        <v>5.0565076867402749E-70</v>
+        <v>2.786654876691397E-24</v>
       </c>
       <c r="C16">
         <f t="shared" si="4"/>
-        <v>2.2486679805476563E-35</v>
+        <v>1.6693276720558481E-12</v>
       </c>
       <c r="D16">
         <f t="shared" si="4"/>
-        <v>4.7420122105996908E-18</v>
+        <v>1.2920246406535163E-6</v>
       </c>
       <c r="E16">
         <f t="shared" si="4"/>
-        <v>2.3112030720982382E-9</v>
+        <v>1.159910677224694E-3</v>
       </c>
       <c r="F16">
         <f t="shared" si="4"/>
-        <v>5.102415547013311E-5</v>
+        <v>3.4753729871640403E-2</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
-        <v>7.5813174961530559E-3</v>
+        <v>0.19023475291204575</v>
       </c>
       <c r="H16">
         <f t="shared" si="4"/>
-        <v>9.2412158539992822E-2</v>
+        <v>0.44507589864733055</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <f t="shared" si="6"/>
-        <v>5.0388479999999989</v>
+        <v>17.294402999999992</v>
       </c>
       <c r="B17">
         <f t="shared" si="5"/>
-        <v>3.2093552027669717E-116</v>
+        <v>2.2393338042427145E-34</v>
       </c>
       <c r="C17">
         <f t="shared" si="4"/>
-        <v>1.7914673323192281E-58</v>
+        <v>1.4964403777774492E-17</v>
       </c>
       <c r="D17">
         <f t="shared" si="4"/>
-        <v>1.3384570715264752E-29</v>
+        <v>3.8683851640929563E-9</v>
       </c>
       <c r="E17">
         <f t="shared" si="4"/>
-        <v>4.0401439895618527E-15</v>
+        <v>6.4020753352885215E-5</v>
       </c>
       <c r="F17">
         <f t="shared" si="4"/>
-        <v>7.019287679859804E-8</v>
+        <v>8.2359995832118997E-3</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>2.9257764589838293E-4</v>
+        <v>9.3414454873885389E-2</v>
       </c>
       <c r="H17">
         <f t="shared" si="4"/>
-        <v>1.8889270715907111E-2</v>
+        <v>0.31460307826335648</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <f t="shared" si="6"/>
-        <v>3.0233087999999992</v>
+        <v>12.106082099999993</v>
       </c>
       <c r="B18">
         <f t="shared" si="5"/>
-        <v>3.2411289536256912E-193</v>
+        <v>8.4867458062614475E-49</v>
       </c>
       <c r="C18">
         <f t="shared" si="4"/>
-        <v>5.6930913866068328E-97</v>
+        <v>9.2123535571869191E-25</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>7.5452577070679514E-49</v>
+        <v>9.5981006231373286E-13</v>
       </c>
       <c r="E18">
         <f t="shared" si="4"/>
-        <v>1.0248525967534675E-24</v>
+        <v>1.0210092723512226E-6</v>
       </c>
       <c r="F18">
         <f t="shared" si="4"/>
-        <v>1.1944145081521743E-12</v>
+        <v>1.0530570014240309E-3</v>
       </c>
       <c r="G18">
         <f t="shared" si="4"/>
-        <v>1.289442267192937E-6</v>
+        <v>3.3819172494632385E-2</v>
       </c>
       <c r="H18">
         <f t="shared" si="4"/>
-        <v>1.3397547888394038E-3</v>
+        <v>0.19165428131517079</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
